--- a/wwwroot/OutFiles/Report.xlsx
+++ b/wwwroot/OutFiles/Report.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mySheet" sheetId="1" r:id="Rfe8e8331e99047e3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mySheet" sheetId="1" r:id="R439969a8eec645da"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,7 +12,7 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Период: 15.04.2020-15.05.2020</x:v>
+        <x:v>Период: 21.04.2020-21.05.2020</x:v>
       </x:c>
     </x:row>
     <x:row>

--- a/wwwroot/OutFiles/Report.xlsx
+++ b/wwwroot/OutFiles/Report.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mySheet" sheetId="1" r:id="R439969a8eec645da"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mySheet" sheetId="1" r:id="R64afcedf1d33477e"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,7 +12,7 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Период: 21.04.2020-21.05.2020</x:v>
+        <x:v>Период: 30.06.2020-31.07.2020</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -46,19 +46,42 @@
         <x:v>TOYOTA RAV4</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>2</x:v>
+        <x:v/>
       </x:c>
       <x:c t="n">
-        <x:v>1</x:v>
+        <x:v/>
       </x:c>
       <x:c t="n">
-        <x:v>1</x:v>
+        <x:v/>
       </x:c>
       <x:c t="n">
-        <x:v>1</x:v>
+        <x:v/>
       </x:c>
       <x:c t="n">
-        <x:v>2022.65</x:v>
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>АА9400ХК</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>MERCEDES-BENZ G63 AMG</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v/>
+      </x:c>
+      <x:c t="n">
+        <x:v/>
+      </x:c>
+      <x:c t="n">
+        <x:v/>
+      </x:c>
+      <x:c t="n">
+        <x:v/>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/wwwroot/OutFiles/Report.xlsx
+++ b/wwwroot/OutFiles/Report.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mySheet" sheetId="1" r:id="R64afcedf1d33477e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mySheet" sheetId="1" r:id="Race9b4786a4c4ba3"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,7 +12,7 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Период: 30.06.2020-31.07.2020</x:v>
+        <x:v>Период: 19.12.2020-19.01.2021</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -84,6 +84,98 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>СВ0273ЕА</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>SKODA FELICIA</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v/>
+      </x:c>
+      <x:c t="n">
+        <x:v/>
+      </x:c>
+      <x:c t="n">
+        <x:v/>
+      </x:c>
+      <x:c t="n">
+        <x:v/>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>ВІ2872АА</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Indefined Indefined</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v/>
+      </x:c>
+      <x:c t="n">
+        <x:v/>
+      </x:c>
+      <x:c t="n">
+        <x:v/>
+      </x:c>
+      <x:c t="n">
+        <x:v/>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>АХ1938ВР</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>MERCEDES-BENZ E250 CDI 4 MATIC</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v/>
+      </x:c>
+      <x:c t="n">
+        <x:v/>
+      </x:c>
+      <x:c t="n">
+        <x:v/>
+      </x:c>
+      <x:c t="n">
+        <x:v/>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>ВІ2878АА</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Indefined Indefined</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v/>
+      </x:c>
+      <x:c t="n">
+        <x:v/>
+      </x:c>
+      <x:c t="n">
+        <x:v/>
+      </x:c>
+      <x:c t="n">
+        <x:v/>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
 </x:worksheet>
 </file>